--- a/results/data/AA5.xlsx
+++ b/results/data/AA5.xlsx
@@ -414,16 +414,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1037597</v>
+        <v>1044271</v>
       </c>
       <c r="C2">
-        <v>348427</v>
+        <v>348591</v>
       </c>
       <c r="D2">
-        <v>73067</v>
+        <v>73075</v>
       </c>
       <c r="E2">
-        <v>1459091</v>
+        <v>1465937</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>629387</v>
+        <v>716689</v>
       </c>
       <c r="C3">
-        <v>328487</v>
+        <v>327971</v>
       </c>
       <c r="D3">
         <v>11024</v>
       </c>
       <c r="E3">
-        <v>968898</v>
+        <v>1055684</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1178549</v>
+        <v>1236227</v>
       </c>
       <c r="C4">
-        <v>919532</v>
+        <v>919531</v>
       </c>
       <c r="D4">
-        <v>52900</v>
+        <v>52972</v>
       </c>
       <c r="E4">
-        <v>2150981</v>
+        <v>2208730</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1097543</v>
+        <v>1124792</v>
       </c>
       <c r="C5">
-        <v>627973</v>
+        <v>628490</v>
       </c>
       <c r="D5">
         <v>154957</v>
       </c>
       <c r="E5">
-        <v>1880473</v>
+        <v>1908239</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1135549</v>
+        <v>1178695</v>
       </c>
       <c r="C6">
-        <v>481267</v>
+        <v>481616</v>
       </c>
       <c r="D6">
-        <v>16681</v>
+        <v>16756</v>
       </c>
       <c r="E6">
-        <v>1633497</v>
+        <v>1677067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>258101</v>
+        <v>296863</v>
       </c>
       <c r="C7">
-        <v>85987</v>
+        <v>85904</v>
       </c>
       <c r="D7">
-        <v>38220</v>
+        <v>38284</v>
       </c>
       <c r="E7">
-        <v>382308</v>
+        <v>421051</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>474028</v>
+        <v>450695</v>
       </c>
       <c r="C8">
-        <v>18377</v>
+        <v>18116</v>
       </c>
       <c r="D8">
-        <v>4106</v>
+        <v>4023</v>
       </c>
       <c r="E8">
-        <v>496511</v>
+        <v>472834</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>695856</v>
+        <v>758072</v>
       </c>
       <c r="C9">
-        <v>413759</v>
+        <v>413298</v>
       </c>
       <c r="D9">
-        <v>49416</v>
+        <v>49352</v>
       </c>
       <c r="E9">
-        <v>1159031</v>
+        <v>1220722</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/AA5.xlsx
+++ b/results/data/AA5.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>trend</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CDW</t>
   </si>
@@ -386,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,144 +402,117 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>1046297</v>
       </c>
       <c r="B2">
-        <v>1044271</v>
+        <v>349181</v>
       </c>
       <c r="C2">
-        <v>348591</v>
+        <v>73202</v>
       </c>
       <c r="D2">
-        <v>73075</v>
-      </c>
-      <c r="E2">
-        <v>1465937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1468680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>717454</v>
       </c>
       <c r="B3">
-        <v>716689</v>
+        <v>328289</v>
       </c>
       <c r="C3">
-        <v>327971</v>
+        <v>11052</v>
       </c>
       <c r="D3">
-        <v>11024</v>
-      </c>
-      <c r="E3">
-        <v>1055684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1056797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>1236944</v>
       </c>
       <c r="B4">
-        <v>1236227</v>
+        <v>920028</v>
       </c>
       <c r="C4">
-        <v>919531</v>
+        <v>53043</v>
       </c>
       <c r="D4">
-        <v>52972</v>
-      </c>
-      <c r="E4">
-        <v>2208730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>2210016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>1125924</v>
       </c>
       <c r="B5">
-        <v>1124792</v>
+        <v>628848</v>
       </c>
       <c r="C5">
-        <v>628490</v>
+        <v>154977</v>
       </c>
       <c r="D5">
-        <v>154957</v>
-      </c>
-      <c r="E5">
-        <v>1908239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1909750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>1182829</v>
       </c>
       <c r="B6">
-        <v>1178695</v>
+        <v>482815</v>
       </c>
       <c r="C6">
-        <v>481616</v>
+        <v>16821</v>
       </c>
       <c r="D6">
-        <v>16756</v>
-      </c>
-      <c r="E6">
-        <v>1677067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1682466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>297351</v>
       </c>
       <c r="B7">
-        <v>296863</v>
+        <v>86110</v>
       </c>
       <c r="C7">
-        <v>85904</v>
+        <v>38326</v>
       </c>
       <c r="D7">
-        <v>38284</v>
-      </c>
-      <c r="E7">
-        <v>421051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>421787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>451336</v>
       </c>
       <c r="B8">
-        <v>450695</v>
+        <v>18206</v>
       </c>
       <c r="C8">
-        <v>18116</v>
+        <v>4029</v>
       </c>
       <c r="D8">
-        <v>4023</v>
-      </c>
-      <c r="E8">
-        <v>472834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>473573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>759607</v>
       </c>
       <c r="B9">
-        <v>758072</v>
+        <v>414062</v>
       </c>
       <c r="C9">
-        <v>413298</v>
+        <v>49447</v>
       </c>
       <c r="D9">
-        <v>49352</v>
-      </c>
-      <c r="E9">
-        <v>1220722</v>
+        <v>1223118</v>
       </c>
     </row>
   </sheetData>
